--- a/santander/data/data_analysis.xlsx
+++ b/santander/data/data_analysis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>fecha_dato</t>
   </si>
@@ -688,6 +688,96 @@
   </si>
   <si>
     <t>99.9%가 N -&gt; 편중이 높아 변수 중요도가 낮음(예상)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>대부분이 1, 나머지 99</t>
+  </si>
+  <si>
+    <t>1.0과 1이 따로 존재, 거의 대부분이 1</t>
+  </si>
+  <si>
+    <t>대부분의 값이 A, I 에 분포</t>
+  </si>
+  <si>
+    <t>대부분 S</t>
+  </si>
+  <si>
+    <t>대부분 N</t>
+  </si>
+  <si>
+    <t>대부분이 nan, 있는 것중 대부분 N</t>
+  </si>
+  <si>
+    <t>살아있는 사람(N)이 대부분</t>
+  </si>
+  <si>
+    <t>날자 데이터, 매월 28일 데이터, 15.07부터 대이터 급증</t>
+  </si>
+  <si>
+    <t>100이 넘는 값이 존재, 특정 나이가 많다(20대 추정)</t>
+  </si>
+  <si>
+    <t>고객이 은행과 첫계약을 체결한 날짜</t>
+  </si>
+  <si>
+    <t>날자 데이터, 1995~2016값 존재, 특정 데이터가 앞도적으로 존재(뭔지 모름)</t>
+  </si>
+  <si>
+    <t>대부분의 값이 0, 나머지는 1</t>
+  </si>
+  <si>
+    <t>대부분이 1, 나머지 99(극 소수)</t>
+  </si>
+  <si>
+    <t>3개의 알파벳으로 구성 , 데이터가 특정값에 몰려있음</t>
+  </si>
+  <si>
+    <t>1~52사이의 값. 28값이 압도적</t>
+  </si>
+  <si>
+    <t>지역 이름, 특정 지역에 몰려있다.</t>
+  </si>
+  <si>
+    <t>앞에 숫자만 사용가능, 01이 많이 적음</t>
+  </si>
+  <si>
+    <t>상품 중 유일하게 안한 사람보다 한 사람이 많다</t>
+  </si>
+  <si>
+    <t>날자 데이터, 매월 28일 데이터, 15.07부터 데이터 급증, 그 이전은 비슷</t>
+  </si>
+  <si>
+    <t>p를 정수로 바꾸면 정수 변경가능</t>
+  </si>
+  <si>
+    <t>날자 데이터, 1995~2016값 존재, 특정 데이터가 앞도적으로 존재(뭔지 모름), 1995년과 2016년의 데이터가 많은 것으로 보아 장기와 신규고객의 비율이 높다.</t>
+  </si>
+  <si>
+    <t>v(여성)이 상대적으로 많다</t>
+  </si>
+  <si>
+    <t>100이 넘는 값이 존재, 특정 나이가 많다(20대 추정), 값이 정렬 되어 있지 않다</t>
+  </si>
+  <si>
+    <t>일단 날자 데이터라 그래프 보기가 힘들다</t>
+  </si>
+  <si>
+    <t>정수로 변경 가능, 값이 정렬되어 있지 않다.</t>
+  </si>
+  <si>
+    <t>3개의 알파벳으로 구성 , 상위 5개가 대부분을 차지</t>
+  </si>
+  <si>
+    <t>1~52사이의 값. 28값이 압도적, 상위 5대 값이 대부분</t>
+  </si>
+  <si>
+    <t>앞에 숫자만 사용가능, 01이 많이 적음, 대학생 비율이 생각보다 높다(대학가 주변으로 추정 가능)</t>
+  </si>
+  <si>
+    <t>지역 이름, cod_prov와 동일</t>
   </si>
 </sst>
 </file>
@@ -1725,8 +1815,8 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1735,7 +1825,7 @@
     <col min="2" max="2" style="3" width="46.75500107" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" width="17.87999916" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="6.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="16" width="28.12999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="16" width="49.75500107" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" style="16" width="30.00499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
@@ -1773,7 +1863,7 @@
         <v>209</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>163</v>
@@ -1846,7 +1936,9 @@
       <c r="D6" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="16" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="33.000000">
       <c r="A7" s="13" t="s">
@@ -1862,18 +1954,18 @@
         <v>212</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="33.000000">
+    <row r="8" spans="1:6" ht="49.500000">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>154</v>
@@ -1882,7 +1974,10 @@
         <v>212</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>215</v>
+        <v>240</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.250000">
@@ -1899,7 +1994,7 @@
         <v>212</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>172</v>
@@ -1922,7 +2017,7 @@
         <v>196</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27.750000">
@@ -1939,13 +2034,13 @@
         <v>212</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="33.000000">
+    <row r="12" spans="1:6" ht="17.250000">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
@@ -1976,7 +2071,7 @@
         <v>212</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>198</v>
@@ -1995,7 +2090,9 @@
       <c r="D14" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="27.750000">
       <c r="A15" s="13" t="s">
@@ -2010,7 +2107,9 @@
       <c r="D15" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="27.750000">
       <c r="A16" s="13" t="s">
@@ -2025,7 +2124,9 @@
       <c r="D16" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="17.250000">
       <c r="A17" s="13" t="s">
@@ -2041,7 +2142,7 @@
         <v>212</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.250000">
@@ -2058,7 +2159,7 @@
         <v>212</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.250000">
@@ -2075,7 +2176,7 @@
         <v>212</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.250000">
@@ -2112,7 +2213,7 @@
         <v>212</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>172</v>
@@ -2132,7 +2233,7 @@
         <v>212</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.250000">
@@ -2175,7 +2276,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.250000">
+    <row r="25" spans="1:6" ht="33.000000">
       <c r="A25" s="13" t="s">
         <v>46</v>
       </c>
@@ -2185,8 +2286,11 @@
       <c r="C25" s="0" t="s">
         <v>154</v>
       </c>
+      <c r="D25" s="0" t="s">
+        <v>212</v>
+      </c>
       <c r="E25" s="16" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.250000">
@@ -2220,6 +2324,9 @@
       </c>
       <c r="C28" s="0" t="s">
         <v>155</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.250000">
